--- a/autoConditions/train1Block5.xlsx
+++ b/autoConditions/train1Block5.xlsx
@@ -485,36 +485,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/09_tipata.wav</t>
+          <t>trainaudio/05_titopo.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainaudio/24_takopa.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/03_kikita.wav</t>
+          <t>trainaudio/04_kitoti.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train1Block5.xlsx
+++ b/autoConditions/train1Block5.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/21_papika.wav</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/26_kapako.wav</t>
+          <t>trainingaudio/21_papika1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/09_tipata.wav</t>
+          <t>trainingaudio/23_patoko1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/05_titopo.wav</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/24_takopa.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/04_kitoti.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train1Block5.xlsx
+++ b/autoConditions/train1Block5.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata2.wav</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/21_papika1.wav</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingaudio/23_patoko1.wav</t>
+          <t>trainingaudio/08_tipako2.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka3.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/04_kitoti2.wav</t>
+          <t>trainingaudio/21_papika1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/05_titopo2.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
     </row>
